--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -540,10 +540,10 @@
         <v>3.424777</v>
       </c>
       <c r="I2">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J2">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.298789</v>
+        <v>26.05761233333333</v>
       </c>
       <c r="N2">
-        <v>366.8963669999999</v>
+        <v>78.172837</v>
       </c>
       <c r="O2">
-        <v>0.4294659933718775</v>
+        <v>0.1375266232872619</v>
       </c>
       <c r="P2">
-        <v>0.4294659933718776</v>
+        <v>0.1375266232872619</v>
       </c>
       <c r="Q2">
-        <v>139.615359898351</v>
+        <v>29.74717046470544</v>
       </c>
       <c r="R2">
-        <v>1256.538239085159</v>
+        <v>267.724534182349</v>
       </c>
       <c r="S2">
-        <v>0.2456714687223831</v>
+        <v>0.0539203482424158</v>
       </c>
       <c r="T2">
-        <v>0.2456714687223831</v>
+        <v>0.0539203482424158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3.424777</v>
       </c>
       <c r="I3">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J3">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>357.911416</v>
       </c>
       <c r="O3">
-        <v>0.4189487703800985</v>
+        <v>0.6296605108298998</v>
       </c>
       <c r="P3">
-        <v>0.4189487703800985</v>
+        <v>0.6296605108298998</v>
       </c>
       <c r="Q3">
         <v>136.1963095060258</v>
@@ -632,10 +632,10 @@
         <v>1225.766785554232</v>
       </c>
       <c r="S3">
-        <v>0.2396552028034332</v>
+        <v>0.2468723015726825</v>
       </c>
       <c r="T3">
-        <v>0.2396552028034333</v>
+        <v>0.2468723015726825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>3.424777</v>
       </c>
       <c r="I4">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J4">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.16684233333334</v>
+        <v>44.11180366666667</v>
       </c>
       <c r="N4">
-        <v>129.500527</v>
+        <v>132.335411</v>
       </c>
       <c r="O4">
-        <v>0.1515852362480238</v>
+        <v>0.2328128658828383</v>
       </c>
       <c r="P4">
-        <v>0.1515852362480239</v>
+        <v>0.2328128658828383</v>
       </c>
       <c r="Q4">
-        <v>49.27893626194211</v>
+        <v>50.35769687537189</v>
       </c>
       <c r="R4">
-        <v>443.510426357479</v>
+        <v>453.219271878347</v>
       </c>
       <c r="S4">
-        <v>0.08671272743459091</v>
+        <v>0.09127942287579024</v>
       </c>
       <c r="T4">
-        <v>0.08671272743459092</v>
+        <v>0.09127942287579024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H5">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I5">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J5">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.298789</v>
+        <v>26.05761233333333</v>
       </c>
       <c r="N5">
-        <v>366.8963669999999</v>
+        <v>78.172837</v>
       </c>
       <c r="O5">
-        <v>0.4294659933718775</v>
+        <v>0.1375266232872619</v>
       </c>
       <c r="P5">
-        <v>0.4294659933718776</v>
+        <v>0.1375266232872619</v>
       </c>
       <c r="Q5">
-        <v>104.450626032129</v>
+        <v>46.1245187901379</v>
       </c>
       <c r="R5">
-        <v>940.0556342891609</v>
+        <v>415.1206691112411</v>
       </c>
       <c r="S5">
-        <v>0.1837945246494945</v>
+        <v>0.08360627504484612</v>
       </c>
       <c r="T5">
-        <v>0.1837945246494945</v>
+        <v>0.08360627504484612</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H6">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I6">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J6">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>357.911416</v>
       </c>
       <c r="O6">
-        <v>0.4189487703800985</v>
+        <v>0.6296605108298998</v>
       </c>
       <c r="P6">
-        <v>0.4189487703800985</v>
+        <v>0.6296605108298998</v>
       </c>
       <c r="Q6">
-        <v>101.892727286792</v>
+        <v>211.1793874449876</v>
       </c>
       <c r="R6">
-        <v>917.0345455811281</v>
+        <v>1900.614487004888</v>
       </c>
       <c r="S6">
-        <v>0.1792935675766653</v>
+        <v>0.3827882092572173</v>
       </c>
       <c r="T6">
-        <v>0.1792935675766653</v>
+        <v>0.3827882092572173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H7">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I7">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J7">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.16684233333334</v>
+        <v>44.11180366666667</v>
       </c>
       <c r="N7">
-        <v>129.500527</v>
+        <v>132.335411</v>
       </c>
       <c r="O7">
-        <v>0.1515852362480238</v>
+        <v>0.2328128658828383</v>
       </c>
       <c r="P7">
-        <v>0.1515852362480239</v>
+        <v>0.2328128658828383</v>
       </c>
       <c r="Q7">
-        <v>36.867116530049</v>
+        <v>78.08220074282478</v>
       </c>
       <c r="R7">
-        <v>331.804048770441</v>
+        <v>702.739806685423</v>
       </c>
       <c r="S7">
-        <v>0.06487250881343294</v>
+        <v>0.141533443007048</v>
       </c>
       <c r="T7">
-        <v>0.06487250881343296</v>
+        <v>0.141533443007048</v>
       </c>
     </row>
   </sheetData>
